--- a/economy_survey_2.xlsx
+++ b/economy_survey_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucy8\PycharmProjects\Capstone_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CA935B-6441-45B5-80FC-5319A567F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12330" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -196,21 +202,28 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,17 +269,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -304,7 +325,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -338,6 +359,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -372,9 +394,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,14 +570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -636,7 +661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -677,7 +702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -718,7 +743,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -759,7 +784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -800,7 +825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -841,7 +866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -882,7 +907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -923,7 +948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -964,7 +989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1128,7 +1153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1169,7 +1194,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -1248,7 +1273,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +1560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1699,7 +1724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +1806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1904,7 +1929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1945,7 +1970,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1986,7 +2011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2109,7 +2134,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2150,7 +2175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2232,7 +2257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -2355,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2396,7 +2421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2478,7 +2503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -2519,7 +2544,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2560,7 +2585,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2724,7 +2749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2765,7 +2790,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2847,7 +2872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2913,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2929,7 +2954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -3011,7 +3036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3052,7 +3077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3093,7 +3118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3134,7 +3159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -3175,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -3216,7 +3241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -3257,7 +3282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3298,7 +3323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3339,7 +3364,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3380,7 +3405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -3421,7 +3446,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3487,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -3503,7 +3528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3626,7 +3651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -3708,7 +3733,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -3749,7 +3774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3790,7 +3815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -3831,7 +3856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -3872,7 +3897,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -3913,7 +3938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3954,7 +3979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3995,7 +4020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -4036,7 +4061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -4077,7 +4102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -4118,7 +4143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -4159,7 +4184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -4200,7 +4225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4241,7 +4266,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4282,7 +4307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4323,7 +4348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -4364,7 +4389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -4405,7 +4430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -4446,7 +4471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -4487,7 +4512,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -4528,7 +4553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>17</v>
       </c>
@@ -4569,7 +4594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -4610,7 +4635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -4651,7 +4676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -4692,7 +4717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -4733,7 +4758,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -4774,7 +4799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -4815,7 +4840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -4856,7 +4881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -4897,7 +4922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -4938,7 +4963,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -4979,7 +5004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -5061,7 +5086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -5102,7 +5127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -5143,7 +5168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -5184,7 +5209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -5225,7 +5250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -5266,7 +5291,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -5307,7 +5332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -5348,7 +5373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +5414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -5430,7 +5455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -5471,7 +5496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -5512,7 +5537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -5553,7 +5578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5594,7 +5619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5635,7 +5660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5676,7 +5701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -5717,7 +5742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -5758,7 +5783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -5840,7 +5865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5881,7 +5906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -5963,7 +5988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -6004,7 +6029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -6045,7 +6070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -6086,7 +6111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -6127,7 +6152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -6168,7 +6193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>14</v>
       </c>
@@ -6209,7 +6234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -6250,7 +6275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>14</v>
       </c>
@@ -6292,6 +6317,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>